--- a/tests/robot_framework/files/woodecision/productierapport - 2 openbaar.xlsx
+++ b/tests/robot_framework/files/woodecision/productierapport - 2 openbaar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/woodecision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4789D239-F53E-9B4A-8205-ADE6BF8A2ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609D0A5A-0864-9F46-A990-D126C4011F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -558,7 +558,7 @@
         <v>1001</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1001</v>
@@ -587,7 +587,7 @@
         <v>1002</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1002</v>
